--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T16:45:27+00:00</t>
+    <t>2024-06-28T16:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T16:52:59+00:00</t>
+    <t>2024-06-28T22:14:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,25 +59,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T22:14:31+00:00</t>
+    <t>2024-06-29T06:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>World Health Organization</t>
+    <t>WHO</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>null (https://www.who.int)</t>
+    <t>WHO (http://who.int)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t/>
   </si>
   <si>
     <t>Description</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-29T06:31:00+00:00</t>
+    <t>2024-06-29T07:09:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-29T07:09:27+00:00</t>
+    <t>2024-06-29T07:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-29T07:14:41+00:00</t>
+    <t>2024-07-01T05:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T05:40:26+00:00</t>
+    <t>2024-07-01T07:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:25:05+00:00</t>
+    <t>2024-07-01T12:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:29:47+00:00</t>
+    <t>2024-07-01T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T14:15:20+00:00</t>
+    <t>2024-07-01T15:03:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:25+00:00</t>
+    <t>2024-07-01T19:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T19:16:13+00:00</t>
+    <t>2024-07-01T19:46:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T19:46:06+00:00</t>
+    <t>2024-07-01T19:47:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T19:47:23+00:00</t>
+    <t>2024-07-08T21:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T21:32:57+00:00</t>
+    <t>2024-07-12T23:16:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T23:16:48+00:00</t>
+    <t>2024-07-12T23:32:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T23:32:04+00:00</t>
+    <t>2024-07-12T23:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T23:35:30+00:00</t>
+    <t>2024-07-13T00:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-13T00:08:00+00:00</t>
+    <t>2024-07-13T00:11:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-13T00:11:33+00:00</t>
+    <t>2024-07-18T00:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T00:40:55+00:00</t>
+    <t>2024-07-22T01:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T01:36:05+00:00</t>
+    <t>2024-07-22T01:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T01:55:08+00:00</t>
+    <t>2024-07-22T01:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T01:56:54+00:00</t>
+    <t>2024-07-23T00:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-23T00:54:21+00:00</t>
+    <t>2024-07-24T18:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-24T18:44:05+00:00</t>
+    <t>2024-07-24T22:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-24T22:47:13+00:00</t>
+    <t>2024-07-31T16:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T16:10:46+00:00</t>
+    <t>2024-08-02T14:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-02T14:11:44+00:00</t>
+    <t>2024-08-09T22:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-09T22:35:04+00:00</t>
+    <t>2024-08-12T23:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T23:19:51+00:00</t>
+    <t>2024-08-13T19:21:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T19:21:15+00:00</t>
+    <t>2024-08-14T10:49:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T10:49:52+00:00</t>
+    <t>2024-08-18T03:48:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T03:48:48+00:00</t>
+    <t>2024-08-18T17:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T17:57:09+00:00</t>
+    <t>2024-08-18T18:01:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T18:01:46+00:00</t>
+    <t>2024-08-18T18:15:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T18:15:40+00:00</t>
+    <t>2024-08-18T19:04:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:04:15+00:00</t>
+    <t>2024-08-18T19:05:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:05:30+00:00</t>
+    <t>2024-08-18T19:09:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-18T19:09:24+00:00</t>
+    <t>2024-08-21T16:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T16:05:17+00:00</t>
+    <t>2024-09-25T13:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T13:28:49+00:00</t>
+    <t>2024-10-17T13:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:22:30+00:00</t>
+    <t>2024-10-17T13:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:23:47+00:00</t>
+    <t>2024-10-17T13:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:40:48+00:00</t>
+    <t>2024-10-17T13:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:43:39+00:00</t>
+    <t>2024-10-17T13:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T13:46:08+00:00</t>
+    <t>2024-10-30T19:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T19:02:22+00:00</t>
+    <t>2024-10-30T19:04:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T19:04:31+00:00</t>
+    <t>2024-11-07T20:58:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T20:58:48+00:00</t>
+    <t>2024-11-07T21:00:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T21:00:54+00:00</t>
+    <t>2024-11-07T21:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T21:07:17+00:00</t>
+    <t>2024-12-06T22:10:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:10:30+00:00</t>
+    <t>2024-12-06T22:29:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:29:10+00:00</t>
+    <t>2024-12-06T22:30:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T22:30:44+00:00</t>
+    <t>2024-12-19T17:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T17:58:53+00:00</t>
+    <t>2024-12-30T06:22:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-30T06:22:02+00:00</t>
+    <t>2025-01-02T00:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T00:27:00+00:00</t>
+    <t>2025-01-13T13:43:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T13:43:27+00:00</t>
+    <t>2025-01-13T15:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:57:06+00:00</t>
+    <t>2025-01-13T16:44:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:44:09+00:00</t>
+    <t>2025-01-13T18:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T18:26:13+00:00</t>
+    <t>2025-01-13T18:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -29,7 +29,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T18:28:16+00:00</t>
+    <t>2025-01-14T02:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T02:52:20+00:00</t>
+    <t>2025-01-21T18:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T18:11:19+00:00</t>
+    <t>2025-01-28T16:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -59,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T16:09:20+00:00</t>
+    <t>2025-01-30T04:52:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,6 +97,27 @@
   </si>
   <si>
     <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>HIV.E.DE181</t>
+  </si>
+  <si>
+    <t>EID sample 1</t>
+  </si>
+  <si>
+    <t>HIV.E.DE182</t>
+  </si>
+  <si>
+    <t>EID sample 2</t>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://smart.who.int/hiv/CodeSystem/HIVConcepts</t>
   </si>
 </sst>
 </file>
@@ -358,4 +380,61 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T04:52:13+00:00</t>
+    <t>2025-01-30T07:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T07:19:17+00:00</t>
+    <t>2025-01-30T16:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T16:12:52+00:00</t>
+    <t>2025-01-31T23:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T23:17:43+00:00</t>
+    <t>2025-02-01T06:48:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T06:48:33+00:00</t>
+    <t>2025-02-01T23:38:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HIV.E.DE180.xlsx
+++ b/ValueSet-HIV.E.DE180.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T23:38:57+00:00</t>
+    <t>2025-02-07T14:15:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
